--- a/xlsx/福布斯_intext.xlsx
+++ b/xlsx/福布斯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>朱利安·阿桑奇</t>
   </si>
   <si>
-    <t>政策_政策_美國_福布斯</t>
+    <t>政策_政策_美国_福布斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E5%A4%AB%C2%B7%E7%A6%8F%E5%B8%83%E6%96%AF</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISSN</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>商業</t>
+    <t>商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>雜誌</t>
+    <t>杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
   </si>
   <si>
-    <t>投資</t>
+    <t>投资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A5%E9%94%80</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>技術</t>
+    <t>技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E4%BF%A1</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%AF%8C_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>財富 (雜誌)</t>
+    <t>财富 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E5%95%86%E4%B8%9A%E5%91%A8%E5%88%8A</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%A7%E5%8F%B3%E9%8A%98</t>
   </si>
   <si>
-    <t>座右銘</t>
+    <t>座右铭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>行政總裁</t>
+    <t>行政总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E8%92%82%C2%B7%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E7%A6%8F%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
-    <t>伯蒂·查爾斯·福布斯</t>
+    <t>伯蒂·查尔斯·福布斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E6%B4%BE</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>印度尼西亞</t>
+    <t>印度尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -203,25 +203,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
   </si>
   <si>
-    <t>南韓</t>
+    <t>南韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -245,25 +245,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%A2%A9%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>華碩電腦</t>
+    <t>华硕电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E8%87%A8%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>豐臨集團</t>
+    <t>丰临集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF%E5%85%A8%E7%90%83%E4%BA%8C%E5%8D%83%E4%B8%8A%E5%B8%82%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>福布斯全球二千上市企業</t>
+    <t>福布斯全球二千上市企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF%E8%B6%B3%E7%90%83%E4%BF%B1%E4%B9%90%E9%83%A8%E8%B4%A2%E5%AF%8C%E6%8E%92%E8%A1%8C%E6%A6%9C</t>
@@ -287,19 +287,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%99%BE%E5%90%8D%E6%AC%8A%E5%A8%81%E5%A5%B3%E6%80%A7</t>
   </si>
   <si>
-    <t>世界百名權威女性</t>
+    <t>世界百名权威女性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF%E4%B8%96%E7%95%8C%E7%99%BE%E5%A4%A7%E5%90%8D%E4%BA%BA%E6%AC%8A%E5%8A%9B%E6%A6%9C</t>
   </si>
   <si>
-    <t>福布斯世界百大名人權力榜</t>
+    <t>福布斯世界百大名人权力榜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E6%AF%94%E5%A3%AB%E5%8F%B0%E7%81%A340%E5%A4%A7%E5%AF%8C%E8%B1%AA%E6%A6%9C</t>
   </si>
   <si>
-    <t>富比士台灣40大富豪榜</t>
+    <t>富比士台湾40大富豪榜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF%E9%A6%99%E6%B8%AF%E5%AF%8C%E8%B1%AA%E6%A6%9C</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF%E4%B8%AD%E5%9C%8B%E5%AF%8C%E8%B1%AA%E6%A6%9C</t>
   </si>
   <si>
-    <t>福布斯中國富豪榜</t>
+    <t>福布斯中国富豪榜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF%E4%B8%AD%E5%9C%8B%E5%90%8D%E4%BA%BA%E6%A6%9C</t>
   </si>
   <si>
-    <t>福布斯中國名人榜</t>
+    <t>福布斯中国名人榜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E7%90%83%E7%BD%91</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E8%98%8B%E6%9E%9C%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>台灣蘋果日報</t>
+    <t>台湾苹果日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF%E6%9D%82%E5%BF%97%E5%85%A8%E7%90%83%E6%9C%80%E5%85%B7%E5%BD%B1%E5%93%8D%E5%8A%9B%E4%BA%BA%E7%89%A9%E5%88%97%E8%A1%A8</t>
@@ -341,37 +341,37 @@
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E7%A6%8F%E5%B8%83%E6%96%AF%E4%B8%96%E7%95%8C%E9%AB%94%E5%A3%87%E5%AF%8C%E8%B1%AA%E6%A6%9C</t>
   </si>
   <si>
-    <t>2008年福布斯世界體壇富豪榜</t>
+    <t>2008年福布斯世界体坛富豪榜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%B8%96%E7%95%8C%E5%84%84%E8%90%AC%E5%AF%8C%E7%BF%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>Template talk-世界億萬富翁列表</t>
+    <t>Template talk-世界亿万富翁列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E5%84%84%E8%90%AC%E5%AF%8C%E7%BF%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>2006年億萬富翁列表</t>
+    <t>2006年亿万富翁列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2007%E5%B9%B4%E5%84%84%E8%90%AC%E5%AF%8C%E7%BF%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>2007年億萬富翁列表</t>
+    <t>2007年亿万富翁列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%84%84%E8%90%AC%E5%AF%8C%E7%BF%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>2008年億萬富翁列表</t>
+    <t>2008年亿万富翁列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4%E5%84%84%E8%90%AC%E5%AF%8C%E7%BF%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>2009年億萬富翁列表</t>
+    <t>2009年亿万富翁列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%BA%BF%E4%B8%87%E5%AF%8C%E7%BF%81%E5%88%97%E8%A1%A8</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E5%84%84%E8%90%AC%E5%AF%8C%E7%BF%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>2011年億萬富翁列表</t>
+    <t>2011年亿万富翁列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E5%84%84%E8%90%AC%E5%AF%8C%E7%BF%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>2012年億萬富翁列表</t>
+    <t>2012年亿万富翁列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4%E4%BA%BF%E4%B8%87%E5%AF%8C%E7%BF%81%E5%88%97%E8%A1%A8</t>
